--- a/All-Star Selections.xlsx
+++ b/All-Star Selections.xlsx
@@ -1936,7 +1936,7 @@
     <t>1999-00</t>
   </si>
   <si>
-    <t>1997-97</t>
+    <t>1997-98</t>
   </si>
   <si>
     <t>1996-97</t>

--- a/All-Star Selections.xlsx
+++ b/All-Star Selections.xlsx
@@ -25,7 +25,7 @@
     <t>lg</t>
   </si>
   <si>
-    <t>year</t>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>replaced</t>
